--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2916202.287426251</v>
+        <v>2916202.28742625</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777168.5034033698</v>
+        <v>951564.242550615</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>295.4495120794944</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>264.2800799783677</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.83713971298207</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>17.86732129165269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>317.4594234814418</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.56679693402426</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>24.8342303463928</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>10.70928072682576</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.34293540178108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>38.39534452612827</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>13.58397576725076</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>33.83094574014066</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>27.71082088042269</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>93.39751462121156</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.23320199071875</v>
       </c>
       <c r="S16" t="n">
-        <v>31.55512593542513</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.1493514951298</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>36.56241635926716</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>29.18937547121088</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>150.1127030201463</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>179.8088876098635</v>
+        <v>45.88884117514947</v>
       </c>
     </row>
     <row r="26">
@@ -2612,10 +2612,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>41.9265677883537</v>
       </c>
       <c r="T28" t="n">
-        <v>62.74236544294445</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>75.13072173266745</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4239261044033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>57.09913002577827</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>251.7020770767771</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>22.08297597612266</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,7 +3439,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3478,7 +3478,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>120.8393376857671</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>157.3129833303995</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>5.125820713725461</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.68059715467862</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>135.4108297890359</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.50960203451631</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>119.3786445880209</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.120910258947</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>930.7521172616393</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.260242234759</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2000.260242234759</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1610.120910258947</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>368.8844281164663</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>773.5003462121382</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>2179.985929774773</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>2179.985929774773</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>2029.869290362438</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>2029.869290362438</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>2029.869290362438</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>2029.869290362438</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2029.869290362438</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2029.869290362438</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V4" t="n">
-        <v>229.739153672332</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="W4" t="n">
-        <v>229.739153672332</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6913543878343</v>
+        <v>2179.985929774773</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>2179.985929774773</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.50539369077</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X5" t="n">
-        <v>1618.50539369077</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124.6845874112026</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C7" t="n">
-        <v>124.6845874112026</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D7" t="n">
-        <v>124.6845874112026</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>124.6845874112026</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>124.6845874112026</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
         <v>99.59950625323012</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>717.3115289268122</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>717.3115289268122</v>
       </c>
       <c r="T7" t="n">
-        <v>352.67413830922</v>
+        <v>717.3115289268122</v>
       </c>
       <c r="U7" t="n">
-        <v>352.67413830922</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="V7" t="n">
-        <v>352.67413830922</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="W7" t="n">
-        <v>352.67413830922</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="X7" t="n">
-        <v>124.6845874112026</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="Y7" t="n">
-        <v>124.6845874112026</v>
+        <v>428.1379185813802</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1056.889695563554</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1056.889695563554</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1507.652482896327</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1117.513150920515</v>
+        <v>1443.489535627676</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>664.5393925952676</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>450.2509694134303</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5039,22 +5039,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>772.9811630466972</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M12" t="n">
-        <v>1093.316482576399</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="N12" t="n">
-        <v>1423.179110240432</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.642871543091</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
         <v>2612.943493278838</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.5250474102529</v>
+        <v>294.1440025502359</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5250474102529</v>
+        <v>125.207819622329</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>125.207819622329</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>125.207819622329</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>125.207819622329</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1093.580233175471</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>804.16306313851</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X13" t="n">
-        <v>576.1735122404926</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.1735122404926</v>
+        <v>475.7924673804756</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5279,22 +5279,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>452.2207927213776</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="L15" t="n">
-        <v>698.9859206278417</v>
+        <v>752.6052383825321</v>
       </c>
       <c r="M15" t="n">
-        <v>1019.321240157543</v>
+        <v>1072.940557912234</v>
       </c>
       <c r="N15" t="n">
-        <v>1823.732818421694</v>
+        <v>1877.352136176385</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>1877.352136176385</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>729.1316371486756</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="C16" t="n">
-        <v>560.1954542207687</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1450.195864506671</v>
       </c>
       <c r="S16" t="n">
-        <v>1467.042405976665</v>
+        <v>1250.275854422224</v>
       </c>
       <c r="T16" t="n">
-        <v>1467.042405976665</v>
+        <v>1250.275854422224</v>
       </c>
       <c r="U16" t="n">
-        <v>1177.913767190223</v>
+        <v>961.1472156357818</v>
       </c>
       <c r="V16" t="n">
-        <v>1177.913767190223</v>
+        <v>961.1472156357818</v>
       </c>
       <c r="W16" t="n">
-        <v>1177.913767190223</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="X16" t="n">
-        <v>949.9242162922058</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="Y16" t="n">
-        <v>729.1316371486756</v>
+        <v>671.7300455988212</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5516,10 +5516,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,16 +5528,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2745.388427942954</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L18" t="n">
-        <v>3359.285497699842</v>
+        <v>839.1740882004194</v>
       </c>
       <c r="M18" t="n">
-        <v>3804.485636337231</v>
+        <v>1146.494221480381</v>
       </c>
       <c r="N18" t="n">
-        <v>4134.348264001264</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O18" t="n">
-        <v>4383.101678085227</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.6713633309776</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C19" t="n">
-        <v>653.6713633309776</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1461.984536861673</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1461.984536861673</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>1461.984536861673</v>
       </c>
       <c r="W19" t="n">
-        <v>1044.311772267568</v>
+        <v>1172.567366824712</v>
       </c>
       <c r="X19" t="n">
-        <v>1044.311772267568</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y19" t="n">
-        <v>823.519193124038</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5747,52 +5747,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>420.6548664034807</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1034.551936160369</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.551936160369</v>
+        <v>1045.390599453109</v>
       </c>
       <c r="N21" t="n">
-        <v>1364.414563824402</v>
+        <v>1849.80217771726</v>
       </c>
       <c r="O21" t="n">
-        <v>2033.878325127062</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>549.3807322743211</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="C22" t="n">
-        <v>549.3807322743211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>399.2640928619853</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>399.2640928619853</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>399.2640928619853</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W22" t="n">
-        <v>731.0291971045608</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X22" t="n">
-        <v>731.0291971045608</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.0291971045608</v>
+        <v>126.7013091079736</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,16 +5981,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>2459.855719156279</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>3073.752788913168</v>
+        <v>818.3643854923159</v>
       </c>
       <c r="M24" t="n">
-        <v>3842.120935305629</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="N24" t="n">
-        <v>4186.641590943247</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O24" t="n">
-        <v>4186.641590943247</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4706.942212678994</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383447</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383447</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>675.0071030383447</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>447.0175521403273</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6221,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6248,16 +6248,16 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M27" t="n">
-        <v>1122.004430061687</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022017</v>
+        <v>1866.280545228376</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1456.566202084818</v>
       </c>
       <c r="T28" t="n">
-        <v>1124.545030325236</v>
+        <v>1456.566202084818</v>
       </c>
       <c r="U28" t="n">
-        <v>835.416391538794</v>
+        <v>1456.566202084818</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1456.566202084818</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>1456.566202084818</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>1228.576651186801</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>1007.78407204327</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6485,22 +6485,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K30" t="n">
-        <v>246.2867756623458</v>
+        <v>2459.855719156278</v>
       </c>
       <c r="L30" t="n">
-        <v>860.1838454192346</v>
+        <v>3073.752788913167</v>
       </c>
       <c r="M30" t="n">
-        <v>1214.889396603096</v>
+        <v>3381.072922193129</v>
       </c>
       <c r="N30" t="n">
-        <v>1559.410052240715</v>
+        <v>4185.48450045728</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>544.6416868225887</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C31" t="n">
-        <v>544.6416868225887</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
         <v>247.6350999123426</v>
@@ -6613,22 +6613,22 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347409</v>
+        <v>1223.106642561669</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609669</v>
+        <v>933.9780037752275</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609669</v>
+        <v>933.9780037752275</v>
       </c>
       <c r="W31" t="n">
-        <v>696.5850465240062</v>
+        <v>644.5608337382669</v>
       </c>
       <c r="X31" t="n">
-        <v>696.5850465240062</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="Y31" t="n">
-        <v>544.6416868225887</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
         <v>904.3190116155888</v>
@@ -6695,10 +6695,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047986</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L33" t="n">
-        <v>998.0351573716432</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M33" t="n">
-        <v>1318.370476901345</v>
+        <v>1180.519164948936</v>
       </c>
       <c r="N33" t="n">
-        <v>2122.782055165496</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>3778.208216256917</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>3609.27203332901</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1130.245268120353</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U34" t="n">
-        <v>1130.245268120353</v>
+        <v>4295.614937191895</v>
       </c>
       <c r="V34" t="n">
-        <v>875.5607799144661</v>
+        <v>4295.614937191895</v>
       </c>
       <c r="W34" t="n">
-        <v>875.5607799144661</v>
+        <v>4006.197767154935</v>
       </c>
       <c r="X34" t="n">
-        <v>647.5712290164488</v>
+        <v>3778.208216256917</v>
       </c>
       <c r="Y34" t="n">
-        <v>426.7786498729187</v>
+        <v>3778.208216256917</v>
       </c>
     </row>
     <row r="35">
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047986</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L36" t="n">
-        <v>758.3231350731116</v>
+        <v>510.8308565899449</v>
       </c>
       <c r="M36" t="n">
-        <v>1078.658454602813</v>
+        <v>1279.199002982406</v>
       </c>
       <c r="N36" t="n">
-        <v>1423.179110240431</v>
+        <v>1623.719658620024</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.642871543091</v>
+        <v>2293.183419922684</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.943493278838</v>
+        <v>2498.205900704893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4094.29663151949</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="C37" t="n">
-        <v>3925.360448591583</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D37" t="n">
-        <v>3775.243809179247</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E37" t="n">
-        <v>3627.330715596854</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596854</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>4315.08921066302</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V37" t="n">
-        <v>4315.08921066302</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W37" t="n">
-        <v>4315.08921066302</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X37" t="n">
-        <v>4315.08921066302</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y37" t="n">
-        <v>4094.29663151949</v>
+        <v>736.1461909267687</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7163,16 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514088</v>
@@ -7184,10 +7184,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5746515181232</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="L39" t="n">
-        <v>469.3397794245874</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="M39" t="n">
-        <v>789.6750989542892</v>
+        <v>843.9587363963141</v>
       </c>
       <c r="N39" t="n">
-        <v>1594.08667721844</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O39" t="n">
-        <v>1842.840091302402</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4334.96385716733</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C40" t="n">
-        <v>4166.027674239424</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D40" t="n">
-        <v>4015.911034827087</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E40" t="n">
-        <v>3867.997941244694</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F40" t="n">
-        <v>3721.107993746784</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746784</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4744.601872895587</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4744.601872895587</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4744.601872895587</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>4744.601872895587</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>4744.601872895587</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X40" t="n">
-        <v>4516.61232199757</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y40" t="n">
-        <v>4516.61232199757</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7418,43 +7418,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>776.4574191377581</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1544.82556553022</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1874.688193194252</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>678.2225136306376</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C43" t="n">
-        <v>509.2863307027308</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7576,7 +7576,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,10 +7585,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
         <v>1387.841167119728</v>
@@ -7597,22 +7597,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1164.055751909234</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>1164.055751909234</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W43" t="n">
-        <v>1164.055751909234</v>
+        <v>707.2494241788781</v>
       </c>
       <c r="X43" t="n">
-        <v>936.0662010112169</v>
+        <v>707.2494241788781</v>
       </c>
       <c r="Y43" t="n">
-        <v>715.2736218676868</v>
+        <v>707.2494241788781</v>
       </c>
     </row>
     <row r="44">
@@ -7643,7 +7643,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7670,22 +7670,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>100.3195468737789</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>714.2166166306677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.551936160369</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N45" t="n">
-        <v>1364.414563824402</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O45" t="n">
-        <v>2033.878325127062</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>496.0629430245501</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>496.0629430245501</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>496.0629430245501</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>348.149849442157</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>348.149849442157</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7813,7 +7813,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.921157035281</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.921157035281</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.921157035281</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W46" t="n">
-        <v>898.50398699832</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X46" t="n">
-        <v>898.50398699832</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>677.7114078547899</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>110.7428266945268</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,16 +9018,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>332.1925926073809</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>352.5501071391199</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>67.45399785664213</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,13 +10191,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,13 +10206,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>245.618857737758</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,13 +10680,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>38.62091132729442</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,13 +10902,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>401.949933828999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,19 +11148,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>407.4124255130876</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>140.9752323213217</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,10 +11394,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>138.7827475829549</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>158.7401287026165</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>61.73115041307405</v>
       </c>
       <c r="S16" t="n">
-        <v>166.3656840481781</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.68262868680748</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>184.9851446991221</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>138.057445627417</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>16.38086544323124</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>38.77576574223133</v>
+        <v>172.6958121769453</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.9942421952495</v>
       </c>
       <c r="T28" t="n">
-        <v>158.8051956154448</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24886,10 +24886,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>146.4168393257218</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.16072724769145</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,22 +25126,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>164.448431032611</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>34.53527532180024</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.1638451225052</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>165.3980147128102</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,10 +25375,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>22.51899685153776</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>192.7949892698778</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>143.1513830272587</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,22 +25837,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>151.1121685475551</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>66.98396642886128</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,19 +26071,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>167.14435374857</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934489</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934482</v>
       </c>
     </row>
     <row r="3">
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
+      <c r="M4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758061</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758696</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905757998</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26479,25 +26479,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.724813753</v>
+        <v>-175578.7248137532</v>
       </c>
       <c r="C6" t="n">
-        <v>414389.1544007914</v>
+        <v>414389.1544007912</v>
       </c>
       <c r="D6" t="n">
         <v>414389.1544007913</v>
       </c>
       <c r="E6" t="n">
-        <v>-11840.11352273988</v>
+        <v>-11840.11352274031</v>
       </c>
       <c r="F6" t="n">
+        <v>513319.9229541562</v>
+      </c>
+      <c r="G6" t="n">
+        <v>513319.9229541561</v>
+      </c>
+      <c r="H6" t="n">
         <v>513319.9229541559</v>
       </c>
-      <c r="G6" t="n">
-        <v>513319.9229541562</v>
-      </c>
-      <c r="H6" t="n">
-        <v>513319.9229541562</v>
-      </c>
       <c r="I6" t="n">
-        <v>513319.922954156</v>
+        <v>513319.9229541559</v>
       </c>
       <c r="J6" t="n">
         <v>336896.7037615629</v>
       </c>
       <c r="K6" t="n">
+        <v>513319.9229541564</v>
+      </c>
+      <c r="L6" t="n">
         <v>513319.9229541561</v>
       </c>
-      <c r="L6" t="n">
-        <v>513319.9229541564</v>
-      </c>
       <c r="M6" t="n">
-        <v>378518.9077203191</v>
+        <v>378518.9077203189</v>
       </c>
       <c r="N6" t="n">
-        <v>513319.9229541563</v>
+        <v>513319.9229541559</v>
       </c>
       <c r="O6" t="n">
-        <v>513319.9229541562</v>
+        <v>513319.9229541561</v>
       </c>
       <c r="P6" t="n">
-        <v>513319.9229541562</v>
+        <v>513319.9229541557</v>
       </c>
     </row>
   </sheetData>
@@ -26747,37 +26747,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26817,7 +26817,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>86.48085799276743</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>84.96088873904534</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>38.36281947555493</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>207.8423340973845</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,10 +27664,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>31.78154523597124</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>360.6711417220293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>142.4755719126581</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>135.9559112533321</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.3909062616995</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>316.2876970945547</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>153.6628453313771</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>112.8342462400172</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31127,16 +31127,16 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>115.481539230439</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31148,7 +31148,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31376,10 +31376,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,19 +31838,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>35.26333017530266</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31859,7 +31859,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,10 +32075,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>231.9657991952064</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
@@ -32087,25 +32087,25 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>260.442891084231</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,34 +32309,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>126.1260799067548</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041463</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>200.0810251367247</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>25.13738937069911</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,34 +32783,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,34 +33020,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>148.2056261846769</v>
+        <v>300.0332340763096</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,34 +33257,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>34.71740571127282</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>132.8355971286221</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,25 +33494,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>168.0827022858024</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>20.45724131309487</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,34 +33968,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>306.0409284289608</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,34 +34205,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>38.77469996425287</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540894</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,7 +34442,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -34451,25 +34451,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>102.4943942860908</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>242.1053372686586</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>267.5492956988876</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>421.1672037449931</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178377</v>
@@ -35507,7 +35507,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>10.73738595686865</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>358.589597233426</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>444.9312523098379</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>581.4502975634052</v>
       </c>
       <c r="M18" t="n">
-        <v>449.6971097347364</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303305</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7048231749444</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>276.4034642029842</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>601.8078120951442</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>155.4670306417163</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>16.86391410134359</v>
+        <v>648.0338963365298</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>358.2884355392544</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>384.1016719609071</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>494.8765626937824</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>516.0833645460226</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37169,7 +37169,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>252.7432068366799</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>126.6339441123686</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>712.3743108794653</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>490.5292896545677</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>271.0606654878379</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>3.133793346962688</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>286.9827555116977</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2916202.28742625</v>
+        <v>2991731.957091056</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>951564.242550615</v>
+        <v>850471.8911918906</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>295.4495120794944</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>258.5671246897482</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>173.8990189732828</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>6.83713971298207</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>29.21780329081358</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>317.4594234814418</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>23.02457248166894</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10.70928072682576</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>38.39534452612827</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>101.9166623220929</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>13.58397576725076</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>17.01291131885992</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>27.71082088042269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.23320199071875</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>55.1539311568782</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>164.3675597136118</v>
       </c>
       <c r="T19" t="n">
-        <v>36.56241635926716</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>29.18937547121088</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>164.1387872970521</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>210.9685212521361</v>
       </c>
       <c r="Y25" t="n">
-        <v>45.88884117514947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>41.9265677883537</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>67.40420556700668</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>75.49545370030792</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -3001,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>75.13072173266745</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>5.174103728815171</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>251.7020770767771</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>22.08297597612266</v>
+        <v>68.88695714964619</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>157.3129833303995</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>159.3541389943717</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>87.95056933639118</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>135.4108297890359</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>92.05936778353028</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>119.3786445880209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.01781586839</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D2" t="n">
-        <v>930.7521172616393</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1963.573724800349</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1610.805069530235</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1237.339311269155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>847.1999792933431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4428,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2179.985929774773</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C4" t="n">
-        <v>2179.985929774773</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D4" t="n">
-        <v>2029.869290362438</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>2029.869290362438</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>2029.869290362438</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>2029.869290362438</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>2029.869290362438</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>2029.869290362438</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U4" t="n">
-        <v>2407.975480672791</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V4" t="n">
-        <v>2407.975480672791</v>
+        <v>513.840561024597</v>
       </c>
       <c r="W4" t="n">
-        <v>2407.975480672791</v>
+        <v>513.840561024597</v>
       </c>
       <c r="X4" t="n">
-        <v>2179.985929774773</v>
+        <v>513.840561024597</v>
       </c>
       <c r="Y4" t="n">
-        <v>2179.985929774773</v>
+        <v>513.840561024597</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1667.156396867425</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1298.193879927013</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1298.193879927013</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>912.4056273287686</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>501.419722539161</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>83.45591443734787</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2045.420119349963</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X5" t="n">
-        <v>2045.420119349963</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.280787374151</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511405</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>77.20012574124218</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>77.20012574124218</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>77.20012574124218</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>77.20012574124218</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>77.20012574124218</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>77.20012574124218</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>77.20012574124218</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>717.3115289268122</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>717.3115289268122</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>717.3115289268122</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>428.1379185813802</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>428.1379185813802</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>428.1379185813802</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>428.1379185813802</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y7" t="n">
-        <v>428.1379185813802</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1056.889695563554</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>1056.889695563554</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
         <v>1018.106519274536</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2362.996790305217</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2109.235004943308</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>1443.489535627676</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1443.489535627676</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587809</v>
+        <v>663.910013048764</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>663.910013048764</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>663.910013048764</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587809</v>
+        <v>663.910013048764</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587809</v>
+        <v>663.910013048764</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,25 +5123,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>492.7132215359195</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171745</v>
+        <v>1106.610291292808</v>
       </c>
       <c r="M12" t="n">
-        <v>1128.069692924718</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N12" t="n">
-        <v>1128.069692924718</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>294.1440025502359</v>
+        <v>225.9364417462777</v>
       </c>
       <c r="C13" t="n">
-        <v>125.207819622329</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>125.207819622329</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>125.207819622329</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>125.207819622329</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240057</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X13" t="n">
-        <v>696.5850465240057</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="Y13" t="n">
-        <v>475.7924673804756</v>
+        <v>225.9364417462777</v>
       </c>
     </row>
     <row r="14">
@@ -5279,22 +5281,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7081686256434</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>752.6052383825321</v>
+        <v>554.945806984088</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.940557912234</v>
+        <v>875.2811265137898</v>
       </c>
       <c r="N15" t="n">
-        <v>1877.352136176385</v>
+        <v>1679.69270477794</v>
       </c>
       <c r="O15" t="n">
-        <v>1877.352136176385</v>
+        <v>2349.1564660806</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>671.7300455988212</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C16" t="n">
-        <v>671.7300455988212</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988212</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1450.195864506671</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1250.275854422224</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1250.275854422224</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>961.1472156357818</v>
+        <v>1332.130125547123</v>
       </c>
       <c r="V16" t="n">
-        <v>961.1472156357818</v>
+        <v>1332.130125547123</v>
       </c>
       <c r="W16" t="n">
-        <v>671.7300455988212</v>
+        <v>1042.712955510163</v>
       </c>
       <c r="X16" t="n">
-        <v>671.7300455988212</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="Y16" t="n">
-        <v>671.7300455988212</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="17">
@@ -5501,46 +5503,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,13 +5551,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>839.1740882004194</v>
+        <v>588.6102378874779</v>
       </c>
       <c r="M18" t="n">
-        <v>1146.494221480381</v>
+        <v>1356.978384279939</v>
       </c>
       <c r="N18" t="n">
-        <v>1476.356849144414</v>
+        <v>2161.38996254409</v>
       </c>
       <c r="O18" t="n">
-        <v>2145.820610447073</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="T19" t="n">
-        <v>1461.984536861673</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U19" t="n">
-        <v>1461.984536861673</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V19" t="n">
-        <v>1461.984536861673</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W19" t="n">
-        <v>1172.567366824712</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X19" t="n">
-        <v>944.5778159266949</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>723.7852367831648</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5747,7 +5749,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5756,13 +5758,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L21" t="n">
-        <v>738.0704661731477</v>
+        <v>768.7460675597613</v>
       </c>
       <c r="M21" t="n">
-        <v>1045.390599453109</v>
+        <v>1537.114213952223</v>
       </c>
       <c r="N21" t="n">
-        <v>1849.80217771726</v>
+        <v>1866.976841616256</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.7013091079736</v>
+        <v>3777.447355009192</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.447355009192</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488384</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="V22" t="n">
-        <v>644.1080300429516</v>
+        <v>4294.854075944169</v>
       </c>
       <c r="W22" t="n">
-        <v>354.6908600059909</v>
+        <v>4005.436905907209</v>
       </c>
       <c r="X22" t="n">
-        <v>126.7013091079736</v>
+        <v>3777.447355009192</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.7013091079736</v>
+        <v>3777.447355009192</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L24" t="n">
-        <v>818.3643854923159</v>
+        <v>660.3780132492466</v>
       </c>
       <c r="M24" t="n">
-        <v>1138.699705022018</v>
+        <v>980.7133327789484</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.5481934947356</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5481934947356</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D25" t="n">
-        <v>395.5481934947356</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>4182.464659513465</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>3893.047489476505</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y25" t="n">
-        <v>395.5481934947356</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="26">
@@ -6215,43 +6217,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,13 +6262,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.726987855212</v>
+        <v>1298.86130537624</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.280545228376</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O27" t="n">
-        <v>2145.820610447073</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>826.1356072130308</v>
+        <v>4037.196409009358</v>
       </c>
       <c r="C28" t="n">
-        <v>657.1994242851239</v>
+        <v>4037.196409009358</v>
       </c>
       <c r="D28" t="n">
-        <v>507.0827848727882</v>
+        <v>4037.196409009358</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S28" t="n">
-        <v>1456.566202084818</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="T28" t="n">
-        <v>1456.566202084818</v>
+        <v>4326.074044281178</v>
       </c>
       <c r="U28" t="n">
-        <v>1456.566202084818</v>
+        <v>4257.988988152889</v>
       </c>
       <c r="V28" t="n">
-        <v>1456.566202084818</v>
+        <v>4257.988988152889</v>
       </c>
       <c r="W28" t="n">
-        <v>1456.566202084818</v>
+        <v>4257.988988152889</v>
       </c>
       <c r="X28" t="n">
-        <v>1228.576651186801</v>
+        <v>4257.988988152889</v>
       </c>
       <c r="Y28" t="n">
-        <v>1007.78407204327</v>
+        <v>4037.196409009358</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6458,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,31 +6478,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>2459.855719156278</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L30" t="n">
-        <v>3073.752788913167</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M30" t="n">
-        <v>3381.072922193129</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="N30" t="n">
-        <v>4185.48450045728</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>4565.745155698578</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.5712828402495</v>
+        <v>789.0750425434832</v>
       </c>
       <c r="C31" t="n">
-        <v>247.6350999123426</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1223.106642561669</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>933.9780037752275</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>933.9780037752275</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W31" t="n">
-        <v>644.5608337382669</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X31" t="n">
-        <v>416.5712828402495</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y31" t="n">
-        <v>416.5712828402495</v>
+        <v>789.0750425434832</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6716,34 +6718,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2867756623457</v>
+        <v>2789.352362038305</v>
       </c>
       <c r="L33" t="n">
-        <v>860.1838454192343</v>
+        <v>3036.11748994477</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.519164948936</v>
+        <v>3804.485636337231</v>
       </c>
       <c r="N33" t="n">
-        <v>1691.441695849499</v>
+        <v>4134.348264001264</v>
       </c>
       <c r="O33" t="n">
-        <v>2360.905457152158</v>
+        <v>4383.101678085227</v>
       </c>
       <c r="P33" t="n">
-        <v>2543.548934765509</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3778.208216256917</v>
+        <v>3761.388348229764</v>
       </c>
       <c r="C34" t="n">
-        <v>3609.27203332901</v>
+        <v>3761.388348229764</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>3611.271708817429</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>3611.271708817429</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>3464.381761319518</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>3464.381761319518</v>
       </c>
       <c r="H34" t="n">
         <v>3459.155393916675</v>
@@ -6883,25 +6885,25 @@
         <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T34" t="n">
-        <v>4549.85945949167</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U34" t="n">
-        <v>4295.614937191895</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V34" t="n">
-        <v>4295.614937191895</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="W34" t="n">
-        <v>4006.197767154935</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="X34" t="n">
-        <v>3778.208216256917</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="Y34" t="n">
-        <v>3778.208216256917</v>
+        <v>3761.388348229764</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>264.0657286834809</v>
+        <v>246.2867756623458</v>
       </c>
       <c r="L36" t="n">
-        <v>510.8308565899449</v>
+        <v>860.1838454192347</v>
       </c>
       <c r="M36" t="n">
-        <v>1279.199002982406</v>
+        <v>1628.551991811696</v>
       </c>
       <c r="N36" t="n">
-        <v>1623.719658620024</v>
+        <v>1973.072647449314</v>
       </c>
       <c r="O36" t="n">
-        <v>2293.183419922684</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P36" t="n">
-        <v>2498.205900704893</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>736.1461909267687</v>
+        <v>576.3642008327098</v>
       </c>
       <c r="C37" t="n">
-        <v>713.8401545872508</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D37" t="n">
-        <v>563.7235151749151</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>964.135741824786</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>964.135741824786</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W37" t="n">
-        <v>964.135741824786</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="X37" t="n">
-        <v>736.1461909267687</v>
+        <v>758.0126656629495</v>
       </c>
       <c r="Y37" t="n">
-        <v>736.1461909267687</v>
+        <v>758.0126656629495</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514088</v>
@@ -7181,43 +7183,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>138.7081686256435</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>138.7081686256435</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>843.9587363963141</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.370314660465</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="O39" t="n">
-        <v>2317.834075963124</v>
+        <v>2111.803510894048</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>822.6075462588844</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C40" t="n">
-        <v>653.6713633309776</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D40" t="n">
-        <v>503.5547239186419</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E40" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229244</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y40" t="n">
-        <v>981.5095496229244</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,67 +7396,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>1211.711801605471</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>525.6009593486384</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="C43" t="n">
-        <v>356.6647764207315</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="D43" t="n">
-        <v>356.6647764207315</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>297.590641763986</v>
       </c>
       <c r="H43" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>844.0280401273993</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W43" t="n">
-        <v>707.2494241788781</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X43" t="n">
-        <v>707.2494241788781</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y43" t="n">
-        <v>707.2494241788781</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,13 +7642,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>865.5852378527475</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N45" t="n">
-        <v>1669.996816116898</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O45" t="n">
-        <v>2339.460577419557</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>874.927113122792</v>
+        <v>1405.927010170498</v>
       </c>
       <c r="V46" t="n">
-        <v>620.2426249169051</v>
+        <v>1151.242521964611</v>
       </c>
       <c r="W46" t="n">
-        <v>499.6581354340557</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
   </sheetData>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>248.9156018924988</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>110.7428266945268</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,16 +9020,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>332.1925926073809</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5501071391199</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>320.777342320556</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>89.56447037073758</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>140.8720369549922</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,13 +10682,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>38.62091132729442</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,25 +10904,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>401.949933828999</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>299.1085874773542</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>407.4124255130876</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,7 +11384,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>150.2339097797679</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>138.7827475829549</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>61.73115041307405</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>231.0834212416991</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>33.55325026999142</v>
       </c>
       <c r="T19" t="n">
-        <v>184.9851446991221</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.057445627417</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>87.99885602677591</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>14.74113413690102</v>
       </c>
       <c r="Y25" t="n">
-        <v>172.6958121769453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.9942421952495</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>218.8331468315707</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>91.75136739831991</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>146.4168393257218</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>143.739724638721</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>34.53527532180024</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>145.1638451225052</v>
+        <v>98.35986394898164</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>22.51899685153776</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25606,16 +25608,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>59.23051435772305</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>60.96325903114494</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>151.1121685475551</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>194.1779846150471</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>167.14435374857</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.042593449</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="K2" t="n">
         <v>606095.0425934489</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934481</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="N2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="O2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934482</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,34 +26429,34 @@
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26488,13 +26490,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26503,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.7248137532</v>
+        <v>-175578.7248137536</v>
       </c>
       <c r="C6" t="n">
-        <v>414389.1544007912</v>
+        <v>414389.1544007913</v>
       </c>
       <c r="D6" t="n">
         <v>414389.1544007913</v>
       </c>
       <c r="E6" t="n">
-        <v>-11840.11352274031</v>
+        <v>-11840.11352273975</v>
       </c>
       <c r="F6" t="n">
         <v>513319.9229541562</v>
       </c>
       <c r="G6" t="n">
-        <v>513319.9229541561</v>
+        <v>513319.9229541559</v>
       </c>
       <c r="H6" t="n">
         <v>513319.9229541559</v>
       </c>
       <c r="I6" t="n">
-        <v>513319.9229541559</v>
+        <v>513319.9229541562</v>
       </c>
       <c r="J6" t="n">
-        <v>336896.7037615629</v>
+        <v>336896.7037615632</v>
       </c>
       <c r="K6" t="n">
         <v>513319.9229541564</v>
       </c>
       <c r="L6" t="n">
+        <v>513319.9229541556</v>
+      </c>
+      <c r="M6" t="n">
+        <v>378518.9077203185</v>
+      </c>
+      <c r="N6" t="n">
+        <v>513319.9229541562</v>
+      </c>
+      <c r="O6" t="n">
+        <v>513319.9229541559</v>
+      </c>
+      <c r="P6" t="n">
         <v>513319.9229541561</v>
-      </c>
-      <c r="M6" t="n">
-        <v>378518.9077203189</v>
-      </c>
-      <c r="N6" t="n">
-        <v>513319.9229541559</v>
-      </c>
-      <c r="O6" t="n">
-        <v>513319.9229541561</v>
-      </c>
-      <c r="P6" t="n">
-        <v>513319.9229541557</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>86.48085799276743</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>69.18513378038671</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>5.932961208654461</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.36281947555493</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>294.7049694735435</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,13 +27672,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>31.78154523597124</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>22.17538670686806</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>135.9559112533321</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>316.2876970945547</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>114.5316580355649</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>153.6628453313771</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>162.1328739429434</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31127,7 +31129,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,13 +31138,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>162.4518126576415</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31367,7 +31369,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31376,7 +31378,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31841,13 +31843,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,19 +31858,19 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32077,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>103.4424743410259</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32090,13 +32092,13 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>260.442891084231</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,19 +32314,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>137.4469500010156</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32333,16 +32335,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32551,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>295.450692958653</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724846</v>
@@ -32564,16 +32566,16 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>25.13738937069911</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>168.5622361295445</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>300.0332340763096</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33053,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33259,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>132.8355971286221</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33496,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>168.0827022858024</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33733,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>151.2216239557387</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>398.6599419206489</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540894</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34454,28 +34456,28 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>102.4943942860908</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,13 +34786,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35015,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>399.4910404804381</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>421.1672037449931</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>335.7284398646109</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
@@ -35738,16 +35740,16 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>444.9312523098379</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>581.4502975634052</v>
+        <v>369.7329155246006</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>527.736658482238</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>276.4034642029842</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>601.8078120951442</v>
+        <v>400.8482016531295</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>178.6433083985377</v>
       </c>
       <c r="N27" t="n">
-        <v>648.0338963365298</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>399.988847421204</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>384.1016719609071</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>291.4474755429316</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N33" t="n">
-        <v>516.0833645460226</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N36" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>402.4876987880237</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>126.6339441123686</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>712.3743108794653</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>506.2020024088789</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>267.3182298373156</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.154607095148</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>286.9827555116977</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2991731.957091056</v>
+        <v>2984714.942199343</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>850471.8911918906</v>
+        <v>655930.9671769614</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>197.4327108703708</v>
       </c>
       <c r="V2" t="n">
-        <v>258.5671246897482</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.8990189732828</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>29.21780329081358</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>338.2584895448977</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>23.02457248166894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>101.9166623220929</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>17.01291131885992</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>33.35146980185836</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>55.1539311568782</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>164.3675597136118</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273909</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>164.1387872970521</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>94.16481274941242</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051976</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>210.9685212521361</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>67.40420556700668</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>75.49545370030792</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5.174103728815171</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.88695714964619</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y40" t="n">
-        <v>159.3541389943717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722631</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>87.95056933639118</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>29.18937547121062</v>
       </c>
       <c r="U46" t="n">
-        <v>92.05936778353028</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>460.6001392292213</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C2" t="n">
-        <v>460.6001392292213</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2047.881266157806</v>
       </c>
       <c r="V2" t="n">
-        <v>1963.573724800349</v>
+        <v>1716.818378814236</v>
       </c>
       <c r="W2" t="n">
-        <v>1610.805069530235</v>
+        <v>1364.049723544122</v>
       </c>
       <c r="X2" t="n">
-        <v>1237.339311269155</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="Y2" t="n">
-        <v>847.1999792933431</v>
+        <v>990.5839652830418</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4424,19 +4424,19 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.1849863041093</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>338.1849863041093</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>513.840561024597</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>513.840561024597</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>513.840561024597</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>513.840561024597</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W4" t="n">
-        <v>513.840561024597</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X4" t="n">
-        <v>513.840561024597</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.840561024597</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1667.156396867425</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1298.193879927013</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1298.193879927013</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>912.4056273287686</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>501.419722539161</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>83.45591443734787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843236</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1667.156396867425</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,28 +4649,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.1363086691491</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>77.20012574124218</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>77.20012574124218</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>77.20012574124218</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>77.20012574124218</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>77.20012574124218</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>77.20012574124218</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>77.20012574124218</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.106519274536</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2362.996790305217</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.235004943308</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1778.172117599737</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1778.172117599737</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1404.706359338657</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.706359338657</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753683</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>663.910013048764</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>663.910013048764</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>663.910013048764</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,10 +5062,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>492.7132215359195</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L12" t="n">
-        <v>1106.610291292808</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1426.94561082251</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.466266460128</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>225.9364417462777</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5229,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W13" t="n">
-        <v>674.7185717878251</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="X13" t="n">
-        <v>446.7290208898078</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.9364417462777</v>
+        <v>130.9054447954963</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
         <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>554.945806984088</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>875.2811265137898</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N15" t="n">
-        <v>1679.69270477794</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O15" t="n">
-        <v>2349.1564660806</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1332.130125547123</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1332.130125547123</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1042.712955510163</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>814.7234046121455</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y16" t="n">
-        <v>593.9308254686154</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5509,58 +5509,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181233</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L18" t="n">
-        <v>588.6102378874779</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M18" t="n">
-        <v>1356.978384279939</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>2161.38996254409</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1332.888432463345</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1332.888432463345</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1043.759793676903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>789.0753054710162</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>499.6581354340557</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805453</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822445</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>246.2867756623457</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>768.7460675597613</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M21" t="n">
-        <v>1537.114213952223</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.976841616256</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O21" t="n">
-        <v>2536.440602918915</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3777.447355009192</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>3777.447355009192</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576119</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4749.779469576119</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>4460.650830789677</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>4294.854075944169</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>4005.436905907209</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X22" t="n">
-        <v>3777.447355009192</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y22" t="n">
-        <v>3777.447355009192</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126483</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>660.3780132492466</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M24" t="n">
-        <v>980.7133327789484</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
-        <v>1785.124911043099</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.149147719352</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>4437.149147719352</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>4182.464659513465</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>3893.047489476505</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>3679.947973060206</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061688</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1298.86130537624</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4037.196409009358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4037.196409009358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>4037.196409009358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.859459491672</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281178</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4257.988988152889</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4257.988988152889</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4257.988988152889</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4257.988988152889</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4037.196409009358</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061688</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1517.99338900868</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.0750425434832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.867621687013</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1009.867621687013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>789.0750425434832</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,19 +6712,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>2789.352362038305</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>3036.11748994477</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M33" t="n">
-        <v>3804.485636337231</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>4134.348264001264</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>4383.101678085227</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3761.388348229764</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>3761.388348229764</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>3611.271708817429</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>3611.271708817429</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>3464.381761319518</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3464.381761319518</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4236.865415579181</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>3982.180927373294</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>3982.180927373294</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3982.180927373294</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>3761.388348229764</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>246.2867756623458</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>860.1838454192347</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1628.551991811696</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1973.072647449314</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>576.3642008327098</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>986.0022165609669</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>986.0022165609669</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>758.0126656629495</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>758.0126656629495</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,52 +7153,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="M39" t="n">
-        <v>1442.339749591389</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N39" t="n">
-        <v>1442.339749591389</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>2111.803510894048</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>1044.311772267568</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W40" t="n">
-        <v>754.894602230607</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X40" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>593.9308254686154</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1211.711801605471</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1476.356849144414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>297.590641763986</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1405.927010170498</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1151.242521964611</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>861.8253519276506</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>633.8358010296332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>110.3707964059381</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>248.9156018924988</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>278.3496682921016</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>320.777342320556</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>89.56447037073758</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>140.8720369549922</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>299.1085874773542</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>150.2339097797679</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>113.0824928447108</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>231.0834212416991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>33.55325026999142</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>87.99885602677591</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>124.4198406026824</v>
       </c>
     </row>
     <row r="23">
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>14.74113413690102</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>218.8331468315707</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>91.75136739831991</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>143.739724638721</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>98.35986394898164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y40" t="n">
-        <v>59.23051435772305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>60.96325903114494</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="U46" t="n">
-        <v>194.1779846150471</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="J2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="K2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="N2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="O2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934484</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.042593449</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934488</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934489</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934481</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934485</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905759224</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905759236</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905759457</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.793690575925</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905759101</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758697</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758696</v>
-      </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759224</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758082</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.7248137536</v>
+        <v>-175578.7248137534</v>
       </c>
       <c r="C6" t="n">
         <v>414389.1544007913</v>
@@ -26530,40 +26530,40 @@
         <v>414389.1544007913</v>
       </c>
       <c r="E6" t="n">
-        <v>-11840.11352273975</v>
+        <v>-12814.70478246184</v>
       </c>
       <c r="F6" t="n">
-        <v>513319.9229541562</v>
+        <v>512345.3316944343</v>
       </c>
       <c r="G6" t="n">
-        <v>513319.9229541559</v>
+        <v>512345.3316944345</v>
       </c>
       <c r="H6" t="n">
-        <v>513319.9229541559</v>
+        <v>512345.3316944344</v>
       </c>
       <c r="I6" t="n">
-        <v>513319.9229541562</v>
+        <v>512345.3316944346</v>
       </c>
       <c r="J6" t="n">
-        <v>336896.7037615632</v>
+        <v>335922.112501841</v>
       </c>
       <c r="K6" t="n">
-        <v>513319.9229541564</v>
+        <v>512345.3316944344</v>
       </c>
       <c r="L6" t="n">
-        <v>513319.9229541556</v>
+        <v>512345.3316944346</v>
       </c>
       <c r="M6" t="n">
-        <v>378518.9077203185</v>
+        <v>377544.3164605973</v>
       </c>
       <c r="N6" t="n">
-        <v>513319.9229541562</v>
+        <v>512345.3316944344</v>
       </c>
       <c r="O6" t="n">
-        <v>513319.9229541559</v>
+        <v>512345.3316944346</v>
       </c>
       <c r="P6" t="n">
-        <v>513319.9229541561</v>
+        <v>512345.3316944343</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,22 +26755,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.79145663791854</v>
       </c>
       <c r="V2" t="n">
-        <v>69.18513378038671</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.932961208654461</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.7049694735435</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>10.9824791725153</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>22.17538670686806</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>114.5316580355649</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>162.1328739429434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.676880856393836e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31144,25 +31144,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31387,7 +31387,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31612,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,28 +31834,28 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>141.3402618185959</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,31 +32077,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>103.4424743410259</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>168.5445774098388</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32235,7 +32235,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32314,13 +32314,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L18" t="n">
-        <v>137.4469500010156</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,13 +32329,13 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,37 +32551,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>295.450692958653</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>168.5622361295445</v>
+        <v>315.882135905433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32815,13 +32815,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33520,16 +33520,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>151.2216239557387</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33973,19 +33973,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>102.1045082246908</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33994,7 +33994,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34210,28 +34210,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>398.6599419206489</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34371,7 +34371,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
@@ -34392,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34447,31 +34447,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>60.29709682323618</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>399.4910404804381</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>489.3409240788161</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>335.7284398646109</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>419.8106522421239</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415072</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L18" t="n">
-        <v>369.7329155246006</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004661</v>
@@ -35977,10 +35977,10 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>527.736658482238</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>136.2156343700832</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>400.8482016531295</v>
+        <v>548.168101429018</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>178.6433083985377</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>399.988847421204</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>291.4474755429316</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>402.4876987880237</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>506.2020024088789</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686864</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>267.3182298373156</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2984714.942199343</v>
+        <v>2989654.205048376</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>655930.9671769614</v>
+        <v>662322.4594402243</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>359.9927133828765</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>197.4327108703708</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>60.46179076613115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598878</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634315</v>
+        <v>25.31590541686297</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>33.35146980185836</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>164.3675597136123</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505273909</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>139.2562370363943</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.16481274941242</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051976</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505273987</v>
+        <v>81.77913505274165</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>194.8026695426855</v>
       </c>
     </row>
     <row r="29">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>76.18232971724146</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980185854</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722631</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>86.65528771720481</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>29.18937547121062</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>243.674146253355</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>990.5839652830418</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830418</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>577.9834619915252</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>577.9834619915252</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>571.0379612423218</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2047.881266157806</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1716.818378814236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.049723544122</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>990.5839652830418</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>990.5839652830418</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>113.6371076753683</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>368.8844281164668</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>773.5003462121387</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1297.64725977017</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1851.373795869721</v>
+        <v>1791.679670014718</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890065</v>
+        <v>2231.815593035062</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2568.060406649891</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>351.9727148150934</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5038,37 +5038,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047984</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L12" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1890.372576454148</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N12" t="n">
         <v>2374.820091292176</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247856</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383438</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324569</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954963</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954963</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954963</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,28 +5299,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5345,19 +5345,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
         <v>222.5746515181232</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5700,7 +5700,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
         <v>1158.436939387592</v>
@@ -5731,25 +5731,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805453</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822445</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
@@ -5764,37 +5764,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,25 +5819,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
         <v>1423.179110240432</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>420.3226148324571</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3330639344398</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>1023.439203208485</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,10 +5974,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5986,13 +5986,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,19 +6056,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
         <v>508.1073603047985</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805461</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822453</v>
+        <v>179.8222783822471</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,28 +6484,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>342.3442613396991</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>342.3442613396991</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>342.3442613396991</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>174.1689396595197</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>174.1689396595197</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6721,28 +6721,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
         <v>2056.693778606511</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,10 +7250,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
         <v>323.6581146605672</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515098</v>
@@ -7432,31 +7432,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,10 +7487,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
         <v>508.1073603047985</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1411.38567690416</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.600261693666</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.600261693666</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>932.915773487779</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>643.4986034508183</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7672,7 +7672,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,10 +7724,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
         <v>508.1073603047985</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>963.6521305054455</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>110.3707964059381</v>
+        <v>50.07369958270186</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>278.3496682921016</v>
+        <v>278.3496682921013</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>113.0824928447108</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.18000134477697</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>40.57574314554299</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.4198406026824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>23.78198380940924</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>34.23691574703054</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>84.59001010593099</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>111.2655222663984</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>192.3581855871786</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>8.463497070473039</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26316,7 +26316,7 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
@@ -26328,34 +26328,34 @@
         <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="K2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="N2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="O2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="O2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="P2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934481</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759224</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905759236</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759457</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.793690575925</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759101</v>
+        <v>787.7936905758295</v>
       </c>
       <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.7936905759224</v>
-      </c>
       <c r="M4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="N4" t="n">
-        <v>787.7936905758696</v>
-      </c>
       <c r="O4" t="n">
-        <v>787.7936905758082</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-175578.7248137534</v>
       </c>
       <c r="C6" t="n">
-        <v>414389.1544007913</v>
+        <v>414389.1544007914</v>
       </c>
       <c r="D6" t="n">
-        <v>414389.1544007913</v>
+        <v>414389.154400791</v>
       </c>
       <c r="E6" t="n">
-        <v>-12814.70478246184</v>
+        <v>-11937.5726487124</v>
       </c>
       <c r="F6" t="n">
-        <v>512345.3316944343</v>
+        <v>513222.4638281842</v>
       </c>
       <c r="G6" t="n">
-        <v>512345.3316944345</v>
+        <v>513222.4638281838</v>
       </c>
       <c r="H6" t="n">
-        <v>512345.3316944344</v>
+        <v>513222.463828184</v>
       </c>
       <c r="I6" t="n">
-        <v>512345.3316944346</v>
+        <v>513222.463828184</v>
       </c>
       <c r="J6" t="n">
-        <v>335922.112501841</v>
+        <v>336799.2446355908</v>
       </c>
       <c r="K6" t="n">
-        <v>512345.3316944344</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="L6" t="n">
-        <v>512345.3316944346</v>
+        <v>513222.463828184</v>
       </c>
       <c r="M6" t="n">
-        <v>377544.3164605973</v>
+        <v>378421.4485943465</v>
       </c>
       <c r="N6" t="n">
-        <v>512345.3316944344</v>
+        <v>513222.4638281838</v>
       </c>
       <c r="O6" t="n">
-        <v>512345.3316944346</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="P6" t="n">
-        <v>512345.3316944343</v>
+        <v>513222.4638281834</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>53.79145663791849</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.79145663791854</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061306</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858127</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866331</v>
+        <v>193.2687479352318</v>
       </c>
     </row>
     <row r="11">
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>129.3623873097335</v>
       </c>
       <c r="N12" t="n">
-        <v>141.3402618185959</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33207,7 +33207,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33912,13 +33912,13 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33976,7 +33976,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>102.1045082246908</v>
+        <v>102.1045082246909</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34392,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.29709682323618</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>452.9334171377151</v>
       </c>
       <c r="N12" t="n">
-        <v>489.3409240788161</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415072</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -36208,7 +36208,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>136.2156343700832</v>
+        <v>136.215634370083</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
